--- a/相机参数.xlsx
+++ b/相机参数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lecter/Downloads/stereo/Stereo-Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CDBEA2-94BD-D74B-B132-33FC8A43628A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF8ECF-B20F-2E47-8866-B89CF1E6DD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15520" yWindow="940" windowWidth="13880" windowHeight="13340" xr2:uid="{2D2CDD9E-B0C8-2B43-9108-14424CE66C67}"/>
+    <workbookView xWindow="17120" yWindow="740" windowWidth="15300" windowHeight="16600" xr2:uid="{2D2CDD9E-B0C8-2B43-9108-14424CE66C67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>左相机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,29 @@
   <si>
     <t>translation</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2560*720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280*480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畸变系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畸变洗漱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.25mm</t>
   </si>
 </sst>
 </file>
@@ -83,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -91,14 +114,176 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,316 +600,842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3930917D-76FD-D54D-90E2-E58E104AD15C}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2">
+    <row r="1" spans="1:13">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>518.56476858940903</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-1.6032097245169801</v>
+      </c>
+      <c r="D3" s="2">
+        <v>326.55994905096998</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>518.56476858940903</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>520.04271658981202</v>
+      </c>
+      <c r="D4" s="5">
+        <v>251.57417404313199</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>-1.6032097245169801</v>
+      </c>
+      <c r="G4" s="5">
+        <v>520.04271658981202</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
+        <v>326.55994905096998</v>
+      </c>
+      <c r="G5" s="8">
+        <v>251.57417404313199</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-2.63011038889716E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.86938583512032E-2</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>-2.63011038889716E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.86938583512032E-2</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>-7.3205977443914104E-4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-1.31662303197571E-4</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8">
+        <v>-7.3205977443914104E-4</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-1.31662303197571E-4</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>516.14562253475106</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-0.62394018487542502</v>
+      </c>
+      <c r="D12" s="2">
+        <v>318.42668684795399</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>516.14562253475106</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>518.03296939084305</v>
+      </c>
+      <c r="D13" s="5">
+        <v>249.66554002145301</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>-0.62394018487542502</v>
+      </c>
+      <c r="G13" s="5">
+        <v>518.03296939084305</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <v>318.42668684795399</v>
+      </c>
+      <c r="G14" s="8">
+        <v>249.66554002145301</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-3.1814632118985699E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.7134826236774196E-2</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>-3.1814632118985699E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>8.7134826236774196E-2</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>-7.9396578923245401E-4</v>
+      </c>
+      <c r="G17" s="5">
+        <v>-1.9786219365858799E-3</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8">
+        <v>-7.9396578923245401E-4</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-1.9786219365858799E-3</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.99999679513478901</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-7.7165445862036205E-4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-2.4112796493004698E-3</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>0.99999679513478901</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-7.7165445862036205E-4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2.4112796493004698E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5">
+        <v>7.6887497834164805E-4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.99999903923356304</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-1.15341372389637E-3</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
+        <v>7.6887497834164805E-4</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.99999903923356304</v>
+      </c>
+      <c r="H21" s="6">
+        <v>-1.15341372389637E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8">
+        <v>2.4121673694665999E-3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1.1515560547727E-3</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.99999642767723596</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8">
+        <v>2.4121673694665999E-3</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1.1515560547727E-3</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.99999642767723596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="14">
+        <v>-119.803143781526</v>
+      </c>
+      <c r="C24" s="14">
+        <v>-0.33001075402489799</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1.54769245685426</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14">
+        <v>-119.803143781526</v>
+      </c>
+      <c r="G24" s="14">
+        <v>-0.33001075402489799</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1.54769245685426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2">
         <v>957.87897256067004</v>
       </c>
-      <c r="C2">
+      <c r="C28" s="2">
         <v>-4.3381605529450002</v>
       </c>
-      <c r="D2">
+      <c r="D28" s="2">
         <v>657.51159256218705</v>
       </c>
-      <c r="F2">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
         <v>957.87897256067004</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
         <v>963.47511775266605</v>
       </c>
-      <c r="D3">
+      <c r="D29" s="5">
         <v>458.918822919825</v>
       </c>
-      <c r="F3">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
         <v>-4.3381605529450002</v>
       </c>
-      <c r="G3">
+      <c r="G29" s="5">
         <v>963.47511775266605</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8">
         <v>657.51159256218705</v>
       </c>
-      <c r="G4">
+      <c r="G30" s="8">
         <v>458.918822919825</v>
       </c>
-      <c r="H4">
+      <c r="H30" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="B6">
+    <row r="31" spans="1:8">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
         <v>-1.9136978766101001E-2</v>
       </c>
-      <c r="C6">
+      <c r="C32" s="2">
         <v>-1.1447766807109801E-2</v>
       </c>
-      <c r="F6">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
         <v>-1.9136978766101001E-2</v>
       </c>
-      <c r="G6">
+      <c r="G32" s="2">
         <v>-1.1447766807109801E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="F7">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
         <v>-9.26286297271579E-4</v>
       </c>
-      <c r="G7">
+      <c r="G33" s="5">
         <v>6.1714269066963498E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8">
         <v>-9.26286297271579E-4</v>
       </c>
-      <c r="C8">
+      <c r="C34" s="8">
         <v>6.1714269066963498E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
         <v>957.19668585757699</v>
       </c>
-      <c r="C11">
+      <c r="C37" s="2">
         <v>2.1464905235668299</v>
       </c>
-      <c r="D11">
+      <c r="D37" s="2">
         <v>666.43742712553399</v>
       </c>
-      <c r="F11">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2">
         <v>957.19668585757699</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
         <v>961.16077121675505</v>
       </c>
-      <c r="D12">
+      <c r="D38" s="5">
         <v>453.06757808970502</v>
       </c>
-      <c r="F12">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
         <v>2.1464905235668299</v>
       </c>
-      <c r="G12">
+      <c r="G38" s="5">
         <v>961.16077121675505</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0</v>
+      </c>
+      <c r="D39" s="8">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8">
         <v>666.43742712553399</v>
       </c>
-      <c r="G13">
+      <c r="G39" s="8">
         <v>453.06757808970502</v>
       </c>
-      <c r="H13">
+      <c r="H39" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="B15">
+    <row r="40" spans="1:8">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2">
         <v>-3.6612133582552303E-2</v>
       </c>
-      <c r="C15">
+      <c r="C41" s="2">
         <v>2.2738021366313199E-2</v>
       </c>
-      <c r="F15">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
         <v>-3.6612133582552303E-2</v>
       </c>
-      <c r="G15">
+      <c r="G41" s="2">
         <v>2.2738021366313199E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="F16">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
         <v>-2.2289469300949601E-3</v>
       </c>
-      <c r="G16">
+      <c r="G42" s="5">
         <v>8.5188529134237398E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="B17">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8">
         <v>-2.2289469300949601E-3</v>
       </c>
-      <c r="C17">
+      <c r="C43" s="8">
         <v>8.5188529134237398E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B45" s="2">
         <v>0.99952210514612305</v>
       </c>
-      <c r="C19">
+      <c r="C45" s="2">
         <v>-1.94812804788521E-4</v>
       </c>
-      <c r="D19">
+      <c r="D45" s="2">
         <v>-3.09115410847376E-2</v>
       </c>
-      <c r="F19">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
         <v>0.99952210514612305</v>
       </c>
-      <c r="G19">
+      <c r="G45" s="2">
         <v>-1.94812804788521E-4</v>
       </c>
-      <c r="H19">
+      <c r="H45" s="3">
         <v>-3.09115410847376E-2</v>
       </c>
-      <c r="J19">
-        <v>0.99952210514612305</v>
-      </c>
-      <c r="K19">
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5">
         <v>2.15787816345195E-4</v>
       </c>
-      <c r="L19">
+      <c r="C46" s="5">
+        <v>0.99999974876012099</v>
+      </c>
+      <c r="D46" s="5">
+        <v>6.7521501297019095E-4</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <v>2.15787816345195E-4</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.99999974876012099</v>
+      </c>
+      <c r="H46" s="6">
+        <v>6.7521501297019095E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8">
         <v>3.0911401777995201E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="B20">
-        <v>2.15787816345195E-4</v>
-      </c>
-      <c r="C20">
-        <v>0.99999974876012099</v>
-      </c>
-      <c r="D20">
-        <v>6.7521501297019095E-4</v>
-      </c>
-      <c r="F20">
-        <v>2.15787816345195E-4</v>
-      </c>
-      <c r="G20">
-        <v>0.99999974876012099</v>
-      </c>
-      <c r="H20">
-        <v>6.7521501297019095E-4</v>
-      </c>
-      <c r="J20">
-        <v>-1.94812804788521E-4</v>
-      </c>
-      <c r="K20">
-        <v>0.99999974876012099</v>
-      </c>
-      <c r="L20">
+      <c r="C47" s="8">
         <v>-6.81562665140773E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="B21">
+      <c r="D47" s="8">
+        <v>0.99952189606454001</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8">
         <v>3.0911401777995201E-2</v>
       </c>
-      <c r="C21">
+      <c r="G47" s="8">
         <v>-6.81562665140773E-4</v>
       </c>
-      <c r="D21">
+      <c r="H47" s="9">
         <v>0.99952189606454001</v>
       </c>
-      <c r="F21">
-        <v>3.0911401777995201E-2</v>
-      </c>
-      <c r="G21">
-        <v>-6.81562665140773E-4</v>
-      </c>
-      <c r="H21">
-        <v>0.99952189606454001</v>
-      </c>
-      <c r="J21">
-        <v>-3.09115410847376E-2</v>
-      </c>
-      <c r="K21">
-        <v>6.7521501297019095E-4</v>
-      </c>
-      <c r="L21">
-        <v>0.99952189606454001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B49" s="14">
         <v>-118.874247505323</v>
       </c>
-      <c r="C24">
+      <c r="C49" s="14">
         <v>-0.37507731625193103</v>
       </c>
-      <c r="D24">
+      <c r="D49" s="14">
         <v>-1.43654873580808</v>
       </c>
-      <c r="F24">
+      <c r="E49" s="14"/>
+      <c r="F49" s="14">
         <v>-118.874247505323</v>
       </c>
-      <c r="G24">
+      <c r="G49" s="14">
         <v>-0.37507731625193103</v>
       </c>
-      <c r="H24">
+      <c r="H49" s="15">
         <v>-1.43654873580808</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A26:H26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/相机参数.xlsx
+++ b/相机参数.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lecter/Downloads/stereo/Stereo-Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF8ECF-B20F-2E47-8866-B89CF1E6DD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20017F80-9902-A843-B674-2189B0029185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17120" yWindow="740" windowWidth="15300" windowHeight="16600" xr2:uid="{2D2CDD9E-B0C8-2B43-9108-14424CE66C67}"/>
+    <workbookView xWindow="17360" yWindow="2440" windowWidth="20660" windowHeight="16600" xr2:uid="{2D2CDD9E-B0C8-2B43-9108-14424CE66C67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,6 +75,7 @@
   </si>
   <si>
     <t>24.25mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -253,9 +254,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +264,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -277,13 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,57 +603,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3930917D-76FD-D54D-90E2-E58E104AD15C}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>518.56476858940903</v>
+        <v>517.98920512336599</v>
       </c>
       <c r="C3" s="2">
-        <v>-1.6032097245169801</v>
+        <v>-1.06613393086584</v>
       </c>
       <c r="D3" s="2">
-        <v>326.55994905096998</v>
+        <v>333.29380503199798</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
-        <v>518.56476858940903</v>
+        <f>B3</f>
+        <v>517.98920512336599</v>
       </c>
       <c r="G3" s="2">
+        <f>B4</f>
         <v>0</v>
       </c>
       <c r="H3" s="3">
+        <f>B5</f>
         <v>0</v>
       </c>
       <c r="M3" t="s">
@@ -661,389 +659,284 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4"/>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>520.04271658981202</v>
-      </c>
-      <c r="D4" s="5">
-        <v>251.57417404313199</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>-1.6032097245169801</v>
-      </c>
-      <c r="G4" s="5">
-        <v>520.04271658981202</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>519.07626264795601</v>
+      </c>
+      <c r="D4">
+        <v>242.52947287025401</v>
+      </c>
+      <c r="F4">
+        <f>C3</f>
+        <v>-1.06613393086584</v>
+      </c>
+      <c r="G4">
+        <f>C4</f>
+        <v>519.07626264795601</v>
+      </c>
+      <c r="H4">
+        <f>C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>326.55994905096998</v>
-      </c>
-      <c r="G5" s="8">
-        <v>251.57417404313199</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <f>D3</f>
+        <v>333.29380503199798</v>
+      </c>
+      <c r="G5" s="7">
+        <f>D4</f>
+        <v>242.52947287025401</v>
+      </c>
+      <c r="H5" s="8">
+        <f>D5</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>-2.63011038889716E-2</v>
+        <v>-2.8947760253499401E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>5.86938583512032E-2</v>
+        <v>6.4523798223478201E-2</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>-2.63011038889716E-2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.86938583512032E-2</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
-        <v>-7.3205977443914104E-4</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-1.31662303197571E-4</v>
-      </c>
-      <c r="H8" s="9"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15">
+        <v>-5.88925849700132E-3</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3.0623481052729998E-3</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8">
-        <v>-7.3205977443914104E-4</v>
-      </c>
-      <c r="C9" s="8">
-        <v>-1.31662303197571E-4</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>516.14562253475106</v>
+        <v>515.30255297286806</v>
       </c>
       <c r="C12" s="2">
-        <v>-0.62394018487542502</v>
+        <v>-0.93090829193075297</v>
       </c>
       <c r="D12" s="2">
-        <v>318.42668684795399</v>
+        <v>325.84599198679803</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <v>516.14562253475106</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="4"/>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>518.03296939084305</v>
-      </c>
-      <c r="D13" s="5">
-        <v>249.66554002145301</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
-        <v>-0.62394018487542502</v>
-      </c>
-      <c r="G13" s="5">
-        <v>518.03296939084305</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>516.56747271311099</v>
+      </c>
+      <c r="D13">
+        <v>241.499526414614</v>
+      </c>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <v>318.42668684795399</v>
-      </c>
-      <c r="G14" s="8">
-        <v>249.66554002145301</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2">
-        <v>-3.1814632118985699E-2</v>
+        <v>-3.27445736263237E-2</v>
       </c>
       <c r="C16" s="2">
-        <v>8.7134826236774196E-2</v>
+        <v>8.2778540203124598E-2</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <v>-3.1814632118985699E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>8.7134826236774196E-2</v>
-      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <v>-7.9396578923245401E-4</v>
-      </c>
-      <c r="G17" s="5">
-        <v>-1.9786219365858799E-3</v>
-      </c>
-      <c r="H17" s="6"/>
+      <c r="B17">
+        <v>-5.8105939647837401E-3</v>
+      </c>
+      <c r="C17">
+        <v>1.68528659925142E-3</v>
+      </c>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8">
-        <v>-7.9396578923245401E-4</v>
-      </c>
-      <c r="C18" s="8">
-        <v>-1.9786219365858799E-3</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="2">
-        <v>0.99999679513478901</v>
+        <v>0.999991710710606</v>
       </c>
       <c r="C20" s="2">
-        <v>-7.7165445862036205E-4</v>
+        <v>1.80706565228647E-4</v>
       </c>
       <c r="D20" s="2">
-        <v>-2.4112796493004698E-3</v>
+        <v>-4.0676596726734104E-3</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2">
-        <v>0.99999679513478901</v>
-      </c>
-      <c r="G20" s="2">
-        <v>-7.7165445862036205E-4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2.4112796493004698E-3</v>
-      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4"/>
-      <c r="B21" s="5">
-        <v>7.6887497834164805E-4</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.99999903923356304</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-1.15341372389637E-3</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5">
-        <v>7.6887497834164805E-4</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0.99999903923356304</v>
-      </c>
-      <c r="H21" s="6">
-        <v>-1.15341372389637E-3</v>
-      </c>
+      <c r="B21">
+        <v>-1.91963623542158E-4</v>
+      </c>
+      <c r="C21">
+        <v>0.99999615277820197</v>
+      </c>
+      <c r="D21">
+        <v>-2.7672330517952899E-3</v>
+      </c>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8">
-        <v>2.4121673694665999E-3</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1.1515560547727E-3</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.99999642767723596</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8">
-        <v>2.4121673694665999E-3</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1.1515560547727E-3</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.99999642767723596</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7">
+        <v>4.0671439663044701E-3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2.7679909560898099E-3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.99998789820978595</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="14">
-        <v>-119.803143781526</v>
-      </c>
-      <c r="C24" s="14">
-        <v>-0.33001075402489799</v>
-      </c>
-      <c r="D24" s="14">
-        <v>1.54769245685426</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14">
-        <v>-119.803143781526</v>
-      </c>
-      <c r="G24" s="14">
-        <v>-0.33001075402489799</v>
-      </c>
-      <c r="H24" s="15">
-        <v>1.54769245685426</v>
-      </c>
+      <c r="B24" s="10">
+        <v>-119.575793220977</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.23286697980054899</v>
+      </c>
+      <c r="D24" s="10">
+        <v>-0.363136025544117</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -1071,57 +964,50 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4"/>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>963.47511775266605</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29">
         <v>458.918822919825</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5">
+      <c r="F29">
         <v>-4.3381605529450002</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29">
         <v>963.47511775266605</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8">
-        <v>0</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
         <v>1</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
         <v>657.51159256218705</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>458.918822919825</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -1145,53 +1031,37 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>-9.26286297271579E-4</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33">
         <v>6.1714269066963498E-4</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7">
         <v>-9.26286297271579E-4</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>6.1714269066963498E-4</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -1219,57 +1089,50 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>961.16077121675505</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38">
         <v>453.06757808970502</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5">
+      <c r="F38">
         <v>2.1464905235668299</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38">
         <v>961.16077121675505</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8">
-        <v>0</v>
-      </c>
-      <c r="C39" s="8">
-        <v>0</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
         <v>1</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7">
         <v>666.43742712553399</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <v>453.06757808970502</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -1293,41 +1156,31 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5">
+      <c r="F42">
         <v>-2.2289469300949601E-3</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42">
         <v>8.5188529134237398E-3</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7">
         <v>-2.2289469300949601E-3</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>8.5188529134237398E-3</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -1355,79 +1208,72 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4"/>
-      <c r="B46" s="5">
+      <c r="B46">
         <v>2.15787816345195E-4</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46">
         <v>0.99999974876012099</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46">
         <v>6.7521501297019095E-4</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5">
+      <c r="F46">
         <v>2.15787816345195E-4</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46">
         <v>0.99999974876012099</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <v>6.7521501297019095E-4</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7">
         <v>3.0911401777995201E-2</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>-6.81562665140773E-4</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>0.99952189606454001</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7">
         <v>3.0911401777995201E-2</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="7">
         <v>-6.81562665140773E-4</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="8">
         <v>0.99952189606454001</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="10">
         <v>-118.874247505323</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="10">
         <v>-0.37507731625193103</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="10">
         <v>-1.43654873580808</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10">
         <v>-118.874247505323</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="10">
         <v>-0.37507731625193103</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="11">
         <v>-1.43654873580808</v>
       </c>
     </row>

--- a/相机参数.xlsx
+++ b/相机参数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lecter/Downloads/stereo/Stereo-Detection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lecter\Downloads\stereo\Stereo-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20017F80-9902-A843-B674-2189B0029185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4C4973-9506-4ED3-8E57-45F96DCFB745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="2440" windowWidth="20660" windowHeight="16600" xr2:uid="{2D2CDD9E-B0C8-2B43-9108-14424CE66C67}"/>
+    <workbookView xWindow="18150" yWindow="3350" windowWidth="19900" windowHeight="15370" xr2:uid="{2D2CDD9E-B0C8-2B43-9108-14424CE66C67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>左相机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1280*480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>畸变系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,12 +73,20 @@
     <t>24.25mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1280*480 参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280*480 参数3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,9 +287,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,17 +602,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3930917D-76FD-D54D-90E2-E58E104AD15C}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.53515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -621,67 +625,43 @@
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>517.98920512336599</v>
+        <v>551.28719425479505</v>
       </c>
       <c r="C3" s="2">
-        <v>-1.06613393086584</v>
+        <v>-0.93342225717040805</v>
       </c>
       <c r="D3" s="2">
-        <v>333.29380503199798</v>
+        <v>327.39791187937902</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <f>B3</f>
-        <v>517.98920512336599</v>
-      </c>
-      <c r="G3" s="2">
-        <f>B4</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>519.07626264795601</v>
+        <v>552.23450570231103</v>
       </c>
       <c r="D4">
-        <v>242.52947287025401</v>
-      </c>
-      <c r="F4">
-        <f>C3</f>
-        <v>-1.06613393086584</v>
-      </c>
-      <c r="G4">
-        <f>C4</f>
-        <v>519.07626264795601</v>
-      </c>
-      <c r="H4">
-        <f>C5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>243.42815747184699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>0</v>
@@ -693,32 +673,26 @@
         <v>1</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7">
-        <f>D3</f>
-        <v>333.29380503199798</v>
-      </c>
-      <c r="G5" s="7">
-        <f>D4</f>
-        <v>242.52947287025401</v>
-      </c>
-      <c r="H5" s="8">
-        <f>D5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>-2.8947760253499401E-2</v>
+        <v>1.4205652935072199E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>6.4523798223478201E-2</v>
+        <v>8.3089670427269904E-2</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -726,21 +700,15 @@
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15">
-        <v>-5.88925849700132E-3</v>
-      </c>
-      <c r="C8" s="15">
-        <v>3.0623481052729998E-3</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>-2.84174677181875E-3</v>
+      </c>
+      <c r="C8">
+        <v>4.3441587146368898E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -750,48 +718,48 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>515.30255297286806</v>
+        <v>548.36586213603596</v>
       </c>
       <c r="C12" s="2">
-        <v>-0.93090829193075297</v>
+        <v>-0.157771511234854</v>
       </c>
       <c r="D12" s="2">
-        <v>325.84599198679803</v>
+        <v>322.99979225843799</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>516.56747271311099</v>
+        <v>548.68974386281502</v>
       </c>
       <c r="D13">
-        <v>241.499526414614</v>
+        <v>244.80052073999599</v>
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="7">
         <v>0</v>
@@ -807,19 +775,19 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>-3.27445736263237E-2</v>
+        <v>1.21850765246689E-2</v>
       </c>
       <c r="C16" s="2">
-        <v>8.2778540203124598E-2</v>
+        <v>8.8563410202543394E-2</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -827,17 +795,17 @@
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17">
-        <v>-5.8105939647837401E-3</v>
+        <v>-3.21925005959528E-3</v>
       </c>
       <c r="C17">
-        <v>1.68528659925142E-3</v>
+        <v>1.4189143069281E-3</v>
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -847,440 +815,743 @@
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="2">
-        <v>0.999991710710606</v>
+        <v>0.99999712073978997</v>
       </c>
       <c r="C20" s="2">
-        <v>1.80706565228647E-4</v>
+        <v>-5.9590763368795097E-4</v>
       </c>
       <c r="D20" s="2">
-        <v>-4.0676596726734104E-3</v>
+        <v>-2.3245227944957E-3</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21">
-        <v>-1.91963623542158E-4</v>
+        <v>5.7954316555883895E-4</v>
       </c>
       <c r="C21">
-        <v>0.99999615277820197</v>
+        <v>0.99997509136040297</v>
       </c>
       <c r="D21">
-        <v>-2.7672330517952899E-3</v>
+        <v>-7.0342582034174398E-3</v>
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="7">
-        <v>4.0671439663044701E-3</v>
+        <v>2.3286566619559199E-3</v>
       </c>
       <c r="C22" s="7">
-        <v>2.7679909560898099E-3</v>
+        <v>7.0328907886589498E-3</v>
       </c>
       <c r="D22" s="7">
-        <v>0.99998789820978595</v>
+        <v>0.99997255752610803</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="10">
-        <v>-119.575793220977</v>
+        <v>-132.97404314138899</v>
       </c>
       <c r="C24" s="10">
-        <v>-0.23286697980054899</v>
+        <v>-1.0279622768077501</v>
       </c>
       <c r="D24" s="10">
-        <v>-0.363136025544117</v>
+        <v>1.00630818805528</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="12" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>517.98920512336599</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-1.06613393086584</v>
+      </c>
+      <c r="D30" s="2">
+        <v>333.29380503199798</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <f>B30</f>
+        <v>517.98920512336599</v>
+      </c>
+      <c r="G30" s="2">
+        <f>B31</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <f>B32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>519.07626264795601</v>
+      </c>
+      <c r="D31">
+        <v>242.52947287025401</v>
+      </c>
+      <c r="F31">
+        <f>C30</f>
+        <v>-1.06613393086584</v>
+      </c>
+      <c r="G31">
+        <f>C31</f>
+        <v>519.07626264795601</v>
+      </c>
+      <c r="H31">
+        <f>C32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
+        <f>D30</f>
+        <v>333.29380503199798</v>
+      </c>
+      <c r="G32" s="7">
+        <f>D31</f>
+        <v>242.52947287025401</v>
+      </c>
+      <c r="H32" s="8">
+        <f>D32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-2.8947760253499401E-2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6.4523798223478201E-2</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>-5.88925849700132E-3</v>
+      </c>
+      <c r="C35">
+        <v>3.0623481052729998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>515.30255297286806</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-0.93090829193075297</v>
+      </c>
+      <c r="D39" s="2">
+        <v>325.84599198679803</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>516.56747271311099</v>
+      </c>
+      <c r="D40">
+        <v>241.499526414614</v>
+      </c>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-3.27445736263237E-2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>8.2778540203124598E-2</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
+      <c r="B44">
+        <v>-5.8105939647837401E-3</v>
+      </c>
+      <c r="C44">
+        <v>1.68528659925142E-3</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.999991710710606</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.80706565228647E-4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-4.0676596726734104E-3</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
+      <c r="B48">
+        <v>-1.91963623542158E-4</v>
+      </c>
+      <c r="C48">
+        <v>0.99999615277820197</v>
+      </c>
+      <c r="D48">
+        <v>-2.7672330517952899E-3</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7">
+        <v>4.0671439663044701E-3</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2.7679909560898099E-3</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.99998789820978595</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="4"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="10">
+        <v>-119.575793220977</v>
+      </c>
+      <c r="C51" s="10">
+        <v>-0.23286697980054899</v>
+      </c>
+      <c r="D51" s="10">
+        <v>-0.363136025544117</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B55" s="2">
         <v>957.87897256067004</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C55" s="2">
         <v>-4.3381605529450002</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D55" s="2">
         <v>657.51159256218705</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
         <v>957.87897256067004</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="4"/>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="4"/>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
         <v>963.47511775266605</v>
       </c>
-      <c r="D29">
+      <c r="D56">
         <v>458.918822919825</v>
       </c>
-      <c r="F29">
+      <c r="F56">
         <v>-4.3381605529450002</v>
       </c>
-      <c r="G29">
+      <c r="G56">
         <v>963.47511775266605</v>
       </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
         <v>1</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7">
+      <c r="E57" s="7"/>
+      <c r="F57" s="7">
         <v>657.51159256218705</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G57" s="7">
         <v>458.918822919825</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H57" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="4"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="4"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2">
+        <v>-1.9136978766101001E-2</v>
+      </c>
+      <c r="C59" s="2">
+        <v>-1.1447766807109801E-2</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2">
+        <v>-1.9136978766101001E-2</v>
+      </c>
+      <c r="G59" s="2">
+        <v>-1.1447766807109801E-2</v>
+      </c>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="4"/>
+      <c r="F60">
+        <v>-9.26286297271579E-4</v>
+      </c>
+      <c r="G60">
+        <v>6.1714269066963498E-4</v>
+      </c>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7">
+        <v>-9.26286297271579E-4</v>
+      </c>
+      <c r="C61" s="7">
+        <v>6.1714269066963498E-4</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="2">
+        <v>957.19668585757699</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2.1464905235668299</v>
+      </c>
+      <c r="D64" s="2">
+        <v>666.43742712553399</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2">
+        <v>957.19668585757699</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="4"/>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>961.16077121675505</v>
+      </c>
+      <c r="D65">
+        <v>453.06757808970502</v>
+      </c>
+      <c r="F65">
+        <v>2.1464905235668299</v>
+      </c>
+      <c r="G65">
+        <v>961.16077121675505</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7">
+        <v>0</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7">
+        <v>666.43742712553399</v>
+      </c>
+      <c r="G66" s="7">
+        <v>453.06757808970502</v>
+      </c>
+      <c r="H66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="4"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="2">
-        <v>-1.9136978766101001E-2</v>
-      </c>
-      <c r="C32" s="2">
-        <v>-1.1447766807109801E-2</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2">
-        <v>-1.9136978766101001E-2</v>
-      </c>
-      <c r="G32" s="2">
-        <v>-1.1447766807109801E-2</v>
-      </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="4"/>
-      <c r="F33">
-        <v>-9.26286297271579E-4</v>
-      </c>
-      <c r="G33">
-        <v>6.1714269066963498E-4</v>
-      </c>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7">
-        <v>-9.26286297271579E-4</v>
-      </c>
-      <c r="C34" s="7">
-        <v>6.1714269066963498E-4</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="4"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="2">
-        <v>957.19668585757699</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2.1464905235668299</v>
-      </c>
-      <c r="D37" s="2">
-        <v>666.43742712553399</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2">
-        <v>957.19668585757699</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="4"/>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>961.16077121675505</v>
-      </c>
-      <c r="D38">
-        <v>453.06757808970502</v>
-      </c>
-      <c r="F38">
-        <v>2.1464905235668299</v>
-      </c>
-      <c r="G38">
-        <v>961.16077121675505</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7">
-        <v>0</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7">
-        <v>666.43742712553399</v>
-      </c>
-      <c r="G39" s="7">
-        <v>453.06757808970502</v>
-      </c>
-      <c r="H39" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="4"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="B68" s="2">
         <v>-3.6612133582552303E-2</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C68" s="2">
         <v>2.2738021366313199E-2</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2">
         <v>-3.6612133582552303E-2</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G68" s="2">
         <v>2.2738021366313199E-2</v>
       </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="4"/>
-      <c r="F42">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="4"/>
+      <c r="F69">
         <v>-2.2289469300949601E-3</v>
       </c>
-      <c r="G42">
+      <c r="G69">
         <v>8.5188529134237398E-3</v>
       </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7">
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7">
         <v>-2.2289469300949601E-3</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C70" s="7">
         <v>8.5188529134237398E-3</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="4"/>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="4"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B72" s="2">
         <v>0.99952210514612305</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C72" s="2">
         <v>-1.94812804788521E-4</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D72" s="2">
         <v>-3.09115410847376E-2</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2">
         <v>0.99952210514612305</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G72" s="2">
         <v>-1.94812804788521E-4</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H72" s="3">
         <v>-3.09115410847376E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="4"/>
-      <c r="B46">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="4"/>
+      <c r="B73">
         <v>2.15787816345195E-4</v>
       </c>
-      <c r="C46">
+      <c r="C73">
         <v>0.99999974876012099</v>
       </c>
-      <c r="D46">
+      <c r="D73">
         <v>6.7521501297019095E-4</v>
       </c>
-      <c r="F46">
+      <c r="F73">
         <v>2.15787816345195E-4</v>
       </c>
-      <c r="G46">
+      <c r="G73">
         <v>0.99999974876012099</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H73" s="5">
         <v>6.7521501297019095E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7">
         <v>3.0911401777995201E-2</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C74" s="7">
         <v>-6.81562665140773E-4</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D74" s="7">
         <v>0.99952189606454001</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7">
+      <c r="E74" s="7"/>
+      <c r="F74" s="7">
         <v>3.0911401777995201E-2</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G74" s="7">
         <v>-6.81562665140773E-4</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H74" s="8">
         <v>0.99952189606454001</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="4"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="9" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="4"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B76" s="10">
         <v>-118.874247505323</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C76" s="10">
         <v>-0.37507731625193103</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D76" s="10">
         <v>-1.43654873580808</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10">
+      <c r="E76" s="10"/>
+      <c r="F76" s="10">
         <v>-118.874247505323</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G76" s="10">
         <v>-0.37507731625193103</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H76" s="11">
         <v>-1.43654873580808</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
